--- a/data/income_statement/2digits/size/42_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/42_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>42-Civil engineering</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>42-Civil engineering</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1172 +841,1322 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>15312133.0676</v>
+        <v>14006812.10846</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>19782186.25445</v>
+        <v>18251807.19027</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>20685194.38619</v>
+        <v>19265111.03363</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>24673368.2468</v>
+        <v>25023301.56004</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>28710216.94477</v>
+        <v>27360343.11302</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>38692577.67794</v>
+        <v>37173100.3559</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>37210221.26102</v>
+        <v>40475794.74976</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>56084131.64651</v>
+        <v>52788161.49300999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>62750184.0365</v>
+        <v>58688750.24455</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>74092215.24193001</v>
+        <v>69078956.37848</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>110523179.46332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>104736560.41417</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>118407611.87</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>13102802.98558</v>
+        <v>11941297.02543</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>17999139.34762</v>
+        <v>16659205.55517</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>18751840.22539</v>
+        <v>17430904.29799</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>21712839.27555</v>
+        <v>20443048.58727</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>24534465.99973</v>
+        <v>22977006.71158</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>34406400.31193999</v>
+        <v>33064774.88307</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>31439343.79099</v>
+        <v>34554476.55753</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>44767648.67523</v>
+        <v>41762984.89503999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>48519612.34946</v>
+        <v>44817526.13311</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>57401557.79066</v>
+        <v>52661568.39955001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>92778695.32886</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>87423528.01648</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>100939759.669</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2013268.07006</v>
+        <v>1917559.22095</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1603779.37532</v>
+        <v>1436218.38187</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1632533.97074</v>
+        <v>1577395.3176</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2445901.12514</v>
+        <v>4111142.30435</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3557038.063500001</v>
+        <v>3732702.17527</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3723458.58771</v>
+        <v>3654226.94333</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>5176030.89847</v>
+        <v>5343946.364519999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>10564229.58763</v>
+        <v>10454976.18926</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>13222300.08037</v>
+        <v>13069029.57543</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>14980396.53498</v>
+        <v>14860932.62771</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>15468439.272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15308147.99154</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>15118461.761</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>196062.01196</v>
+        <v>147955.86208</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>179267.53151</v>
+        <v>156383.25323</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>300820.19006</v>
+        <v>256811.41804</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>514627.84611</v>
+        <v>469110.6684200001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>618712.8815400001</v>
+        <v>650634.22617</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>562718.7782899999</v>
+        <v>454098.5295</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>594846.57156</v>
+        <v>577371.82771</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>752253.38365</v>
+        <v>570200.40871</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1008271.60667</v>
+        <v>802194.53601</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1710260.91629</v>
+        <v>1556455.35122</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2276044.86246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2004884.40615</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2349390.44</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>97329.24033</v>
+        <v>85984.62832999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>527818.27193</v>
+        <v>508589.86663</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>180548.67272</v>
+        <v>179588.80427</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>76728.80650999999</v>
+        <v>71035.08201</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>100567.52473</v>
+        <v>96079.50825999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>220130.80992</v>
+        <v>214933.17902</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>229362.74767</v>
+        <v>225549.93452</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>459458.7174500001</v>
+        <v>440313.76364</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1059878.84067</v>
+        <v>1030373.67244</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>449836.58399</v>
+        <v>415678.53163</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1086679.91403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1024854.53409</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>973060.737</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>18416.09108</v>
+        <v>15365.64292</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>48766.44169000001</v>
+        <v>30606.3365</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>24627.99363</v>
+        <v>23940.3723</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>28071.19725</v>
+        <v>24969.37491</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>43357.60677000001</v>
+        <v>39428.9929</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>107712.68066</v>
+        <v>102641.15639</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>120598.01087</v>
+        <v>115077.96454</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>161584.00458</v>
+        <v>146050.30268</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>162408.20532</v>
+        <v>135904.47125</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>152968.344</v>
+        <v>129106.54325</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>257931.48111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>228770.75698</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>410101.081</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>71601.00469</v>
+        <v>70397.29956999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>476217.67591</v>
+        <v>475200.11855</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>155477.7905</v>
+        <v>155315.18718</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>45726.97976</v>
+        <v>45374.20125000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>51769.23277</v>
+        <v>51753.9624</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>109658.58292</v>
+        <v>109533.46134</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>103199.01147</v>
+        <v>106046.17429</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>279870.03171</v>
+        <v>279574.02202</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>888047.8986000001</v>
+        <v>887464.95874</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>285065.65389</v>
+        <v>277617.38606</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>806731.052</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>793419.80865</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>558149.818</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>7312.144560000001</v>
+        <v>221.68584</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2834.15433</v>
+        <v>2783.41158</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>442.88859</v>
+        <v>333.24479</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2930.6295</v>
+        <v>691.50585</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5440.68519</v>
+        <v>4896.55296</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2759.54634</v>
+        <v>2758.56129</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>5565.72533</v>
+        <v>4425.79569</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>18004.68116</v>
+        <v>14689.43894</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>9422.73675</v>
+        <v>7004.242450000002</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>11802.5861</v>
+        <v>8954.60232</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>22017.38092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2663.96846</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4809.838</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>15214803.82727</v>
+        <v>13920827.48013</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>19254367.98252</v>
+        <v>17743217.32364</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>20504645.71347</v>
+        <v>19085522.22936</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>24596639.44029</v>
+        <v>24952266.47803</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>28609649.42004</v>
+        <v>27264263.60476</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>38472446.86802001</v>
+        <v>36958167.17688</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>36980858.51335</v>
+        <v>40250244.81524</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>55624672.92906</v>
+        <v>52347847.72937001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>61690305.19583</v>
+        <v>57658376.57211</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>73642378.65794</v>
+        <v>68663277.84685001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>109436499.54929</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>103711705.88008</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>117434551.133</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>12906769.208</v>
+        <v>11797375.49129</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>16730439.93658</v>
+        <v>15450322.39089</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>17920265.48737</v>
+        <v>16641515.92208</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>21646714.66299</v>
+        <v>22175550.80796</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>24951970.81789</v>
+        <v>23657618.99256</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>34882413.66723</v>
+        <v>33430517.70249</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>32026076.05302</v>
+        <v>34933056.89898001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>49830150.16387</v>
+        <v>46832537.94163</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>55804645.37011</v>
+        <v>52185144.25409999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>63128820.52908999</v>
+        <v>58940322.54431</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>98051554.31292999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>93086433.69613999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>106275295.685</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1044322.36659</v>
+        <v>974697.73723</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1335031.29577</v>
+        <v>1221593.96869</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>834751.7154700001</v>
+        <v>727755.9387099999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1654266.62014</v>
+        <v>1501105.31949</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1949046.93476</v>
+        <v>1813178.17318</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1402673.04329</v>
+        <v>1292051.53833</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1369148.20956</v>
+        <v>1222436.94884</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2345094.89753</v>
+        <v>2040433.73144</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3021182.8067</v>
+        <v>2625075.523709999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3732843.87493</v>
+        <v>3259483.92178</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2242019.13884</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1758062.26061</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3048018.129</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2157064.77943</v>
+        <v>1998768.30074</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>2648174.53034</v>
+        <v>2478543.19495</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1986958.80473</v>
+        <v>1777312.66831</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2183875.93928</v>
+        <v>2036186.38894</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2894378.81585</v>
+        <v>2658648.61377</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3825762.9106</v>
+        <v>3716157.40801</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>4204140.915399999</v>
+        <v>4153145.42599</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>5453846.8034</v>
+        <v>5145936.58061</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>9235268.821770001</v>
+        <v>8674285.236090001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>9753329.04807</v>
+        <v>9074162.21802</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>11413050.54561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>10895787.90532</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>13900093.432</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>9446062.756990001</v>
+        <v>8574603.37276</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>12558888.55717</v>
+        <v>11568758.92857</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>14796554.55954</v>
+        <v>13837976.03216</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>17258081.56174</v>
+        <v>18105108.38235</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>19595641.55621</v>
+        <v>18565191.66202</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>29289763.32094</v>
+        <v>28119555.93445</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>26061165.00094</v>
+        <v>29197283.51967</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>41644351.41195001</v>
+        <v>39334977.26856</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>43231455.44628</v>
+        <v>40630780.20928</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>49060742.71837001</v>
+        <v>46102434.56335</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>84029328.31229001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>80107232.49305999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>88151159.956</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>259319.30499</v>
+        <v>249306.08056</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>188345.5533</v>
+        <v>181426.29868</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>302000.40763</v>
+        <v>298471.2829</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>550490.54183</v>
+        <v>533150.71718</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>512903.51107</v>
+        <v>620600.54359</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>364214.3924</v>
+        <v>302752.8217</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>391621.92712</v>
+        <v>360191.00448</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>386857.05099</v>
+        <v>311190.36102</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>316738.29536</v>
+        <v>255003.28502</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>581904.88772</v>
+        <v>504241.84116</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>367156.3161899999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>325351.03715</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1176024.168</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2308034.61927</v>
+        <v>2123451.98884</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2523928.04594</v>
+        <v>2292894.93275</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2584380.226100001</v>
+        <v>2444006.30728</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2949924.7773</v>
+        <v>2776715.67007</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3657678.60215</v>
+        <v>3606644.6122</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3590033.20079</v>
+        <v>3527649.47439</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4954782.46033</v>
+        <v>5317187.91626</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5794522.765190001</v>
+        <v>5515309.78774</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>5885659.82572</v>
+        <v>5473232.318010001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>10513558.12885</v>
+        <v>9722955.302539999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>11384945.23636</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10625272.18394</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>11159255.448</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>608773.55272</v>
+        <v>497781.01578</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>680910.1061100001</v>
+        <v>544341.25498</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>893773.5269200001</v>
+        <v>761719.67715</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1507537.15257</v>
+        <v>826943.81442</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1192904.39571</v>
+        <v>1005822.06032</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1256062.78236</v>
+        <v>1106855.57838</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1426967.22574</v>
+        <v>1301761.97756</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1920263.80696</v>
+        <v>1567906.16899</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2816969.78618</v>
+        <v>2434599.82015</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3013108.67881</v>
+        <v>2601296.9232</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3435114.23129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2555888.91911</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3059215.273</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3377.94362</v>
+        <v>3275.58686</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>633.06458</v>
+        <v>617.9883599999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>11240.77794</v>
+        <v>4167.37508</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>43291.24724</v>
+        <v>42602.8054</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>514.08809</v>
+        <v>0</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1495.29708</v>
+        <v>1457.40631</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2820.27483</v>
+        <v>2673.92215</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2684.98163</v>
+        <v>2393.62482</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>15628.40621</v>
+        <v>15311.2895</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>37869.68146</v>
+        <v>35739.27613000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>25819.0306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>21885.7552</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>45257.214</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>71475.35739999999</v>
+        <v>65106.81561999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>110078.74875</v>
+        <v>96308.88963999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>176810.26665</v>
+        <v>169238.86374</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>185141.2842</v>
+        <v>167630.24473</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>275629.23029</v>
+        <v>262273.76952</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>222015.42802</v>
+        <v>216451.91094</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>256888.05892</v>
+        <v>268972.68899</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>354812.2751099999</v>
+        <v>339785.5635</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>476474.3825299999</v>
+        <v>460783.03131</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>595377.0271599999</v>
+        <v>570905.83689</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>770410.88492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>752582.7234400001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>831516.629</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>533920.2517</v>
+        <v>429398.6133</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>570198.29278</v>
+        <v>447414.3769799999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>705722.48233</v>
+        <v>588313.4383299999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1279104.62113</v>
+        <v>616710.7642900001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>916761.0773299999</v>
+        <v>743548.2908</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1032552.05726</v>
+        <v>888946.2611300001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1167258.89199</v>
+        <v>1030115.36642</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1562766.55022</v>
+        <v>1225726.98067</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2324866.99744</v>
+        <v>1958505.49934</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2379861.97019</v>
+        <v>1994651.81018</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2638884.315770001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1781420.44047</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2182441.43</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1699261.06655</v>
+        <v>1625670.97306</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1843017.93983</v>
+        <v>1748553.67777</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1690606.69918</v>
+        <v>1682286.63013</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1442387.62473</v>
+        <v>1949771.85565</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2464774.20644</v>
+        <v>2600822.55188</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2333970.41843</v>
+        <v>2420793.89601</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3527815.23459</v>
+        <v>4015425.9387</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3874258.95823</v>
+        <v>3947403.61875</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3068690.03954</v>
+        <v>3038632.49786</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>7500449.45004</v>
+        <v>7121658.37934</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>7949831.00507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>8069383.26483</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>8100040.175</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2468842.94543</v>
+        <v>2096037.24299</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3777065.87505</v>
+        <v>3185883.8516</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4890188.93941</v>
+        <v>4097911.74672</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>4319231.12485</v>
+        <v>3097105.00388</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5219252.373369999</v>
+        <v>4608288.47752</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>7581454.579600001</v>
+        <v>6828243.28863</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>12477940.2646</v>
+        <v>12581797.10328</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>15410876.1876</v>
+        <v>13093216.88489</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>17751999.98527</v>
+        <v>15961981.24982</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>42974076.61475</v>
+        <v>36663745.04804</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>29348018.61075</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>26223914.3148</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>35907247.301</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>439510.5982899999</v>
+        <v>342637.46632</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>229403.15334</v>
+        <v>70516.04281999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>527430.1817599999</v>
+        <v>261641.03946</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>324011.11024</v>
+        <v>131896.46037</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>423786.87051</v>
+        <v>319837.07755</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>548921.60019</v>
+        <v>445178.56866</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>365355.3565999999</v>
+        <v>344536.4884799999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>397596.98622</v>
+        <v>368502.20604</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1256747.49231</v>
+        <v>1121992.85368</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>920512.39367</v>
+        <v>882993.9243499999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>2208985.10146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1944742.35574</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2962590.56</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>304296.22068</v>
+        <v>285035.2338400001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>513798.02796</v>
+        <v>455849.927</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>584331.1087999999</v>
+        <v>541991.72874</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>880351.0162599999</v>
+        <v>846367.3135699999</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>367618.1611200001</v>
+        <v>303653.65789</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>911578.8500399999</v>
+        <v>958832.99113</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>802457.47512</v>
+        <v>905016.8180600001</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1281188.60434</v>
+        <v>1210184.4326</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1059028.59465</v>
+        <v>964374.3803099999</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>1308350.41517</v>
+        <v>1105340.06788</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2637466.29343</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2428256.34957</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2386134.484</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>274005.9094000001</v>
+        <v>229797.51551</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>341820.14255</v>
+        <v>271801.90262</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>478479.54873</v>
+        <v>382606.58946</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>772835.49008</v>
+        <v>452733.2796900001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>615860.6928</v>
+        <v>498545.3379</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>817620.7582</v>
+        <v>628503.41631</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>913755.4170700002</v>
+        <v>867880.3305299999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1330112.79316</v>
+        <v>1066387.38523</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1678554.73304</v>
+        <v>1357043.10477</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1888308.79992</v>
+        <v>1502114.483</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2080485.23408</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1501710.97343</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1352819.153</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>898.8005000000001</v>
+        <v>874.08376</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1232.41566</v>
+        <v>818.69472</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>3623.91505</v>
+        <v>1160.89226</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>4726.16279</v>
+        <v>3273.2673</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3399.41001</v>
+        <v>3331.86768</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1212.38337</v>
+        <v>1207.08389</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>38581.45352999999</v>
+        <v>37783.29369</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>64880.04696</v>
+        <v>64246.57079999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1520.46491</v>
+        <v>1317.33651</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>304.7539</v>
+        <v>301.79303</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>26.36309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>258.932</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>11978.76631</v>
+        <v>11796.04844</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>11034.66677</v>
+        <v>10124.3767</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2410.92193</v>
+        <v>1993.69764</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>16168.66012</v>
+        <v>7123.1571</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>15198.88891</v>
+        <v>13809.94338</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>19011.61712</v>
+        <v>18781.50527</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>10526.20793</v>
+        <v>4371.7877</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6082.55095</v>
+        <v>5528.563990000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>35863.01914</v>
+        <v>33655.48844</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>114988.06684</v>
+        <v>113333.3062</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>76352.95487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>74108.25284999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>44554.689</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>89105.42082</v>
+        <v>87673.46003999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>104410.10137</v>
+        <v>99851.32042999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>237726.31222</v>
+        <v>235289.75522</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>331329.26764</v>
+        <v>323485.24218</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>174762.55621</v>
+        <v>172580.78409</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>296135.12175</v>
+        <v>284149.95338</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>170221.0189</v>
+        <v>156668.54866</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>245398.48049</v>
+        <v>243984.18071</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>632832.3173599999</v>
+        <v>625793.4234699999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>303372.06342</v>
+        <v>301842.16211</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1825106.85543</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1802912.7001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1156922.471</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1095470.85888</v>
+        <v>915934.0333400001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1279392.30761</v>
+        <v>1009406.67036</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2271941.97267</v>
+        <v>1925294.68891</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1273945.13508</v>
+        <v>852869.21131</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2666593.02571</v>
+        <v>2376440.31079</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>4291886.84074</v>
+        <v>3818233.45458</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>9372751.211479999</v>
+        <v>9511667.873629998</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>10482589.01136</v>
+        <v>9056555.77084</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>11497429.10906</v>
+        <v>10610815.12835</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>36213483.23915</v>
+        <v>30870048.36069</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>16329917.75584</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>14639246.51266</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>26292962.92</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>3976.04491</v>
+        <v>3646.22446</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>4005.93624</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>631.9820500000001</v>
+        <v>556.61296</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>154.69817</v>
+        <v>143.24061</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>44.67246</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1323.33137</v>
+        <v>664.10577</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2119.01987</v>
+        <v>335.37214</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1576.77884</v>
+        <v>0.0523</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>2162.50318</v>
+        <v>1881.52472</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>2841.26189</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>6132.32316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>5047.14842</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>6423.716</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>24018.78327</v>
+        <v>23952.91243</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>345074.69905</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>360863.4043800001</v>
+        <v>360558.93121</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>82316.96098</v>
+        <v>82252.20446000001</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>80916.93627999999</v>
+        <v>79052.10605</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>4200.973379999999</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>10641.22342</v>
+        <v>10416.60189</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>19417.27532</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>80.07829</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
@@ -2113,287 +2164,327 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>2.381</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>225581.54237</v>
+        <v>194690.26485</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>946894.4245</v>
+        <v>918434.2816600001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>422749.59182</v>
+        <v>386817.81086</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>633392.62349</v>
+        <v>396961.62729</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>871071.15936</v>
+        <v>840992.71973</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>689563.10344</v>
+        <v>668491.23626</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>791531.8806799999</v>
+        <v>743119.9885</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1582033.65996</v>
+        <v>1058410.44706</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1587781.67333</v>
+        <v>1245108.00957</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2221915.62079</v>
+        <v>1884929.68889</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4183545.72939</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3827890.02203</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1704577.995</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1363672.73193</v>
+        <v>1216428.85041</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1865576.17777</v>
+        <v>1583775.79269</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2397764.68334</v>
+        <v>2097974.28067</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1890504.20137</v>
+        <v>1440481.59288</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3240676.60029</v>
+        <v>2879232.05236</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4935058.82422</v>
+        <v>4408459.83776</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>9783706.99743</v>
+        <v>9822581.014449999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>11812727.83551</v>
+        <v>9856465.13218</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>12743556.84642</v>
+        <v>11329154.8743</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>39660640.27953999</v>
+        <v>32937756.1801</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>21062071.02114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>16400375.48171</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>28943226.782</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1851.32982</v>
+        <v>1596.22964</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1281.495</v>
+        <v>930.9669699999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1013.51018</v>
+        <v>955.22713</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2285.95378</v>
+        <v>2058.13982</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>6188.475769999999</v>
+        <v>5102.28391</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>14629.39956</v>
+        <v>14176.33834</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3784.94681</v>
+        <v>3686.29057</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3672.3754</v>
+        <v>3195.59926</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>3501.14111</v>
+        <v>2348.95233</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4801.47404</v>
+        <v>1910.89301</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>6664.94904</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1424.69602</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>8078.588</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>29214.56943</v>
+        <v>27913.81105</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>23933.2617</v>
+        <v>18738.70831</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>18571.85879</v>
+        <v>18247.49718</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>10444.19404</v>
+        <v>9996.737939999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>27179.5361</v>
+        <v>23720.90751</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>122438.32854</v>
+        <v>107807.21254</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>80414.03306</v>
+        <v>71119.67525</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>57685.40186</v>
+        <v>48252.40731</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>19148.3508</v>
+        <v>17667.38879</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>107368.66526</v>
+        <v>99288.19543000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>45360.54681</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>23662.96975</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>39602.499</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>18398.77696</v>
+        <v>8713.818509999999</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>10321.66702</v>
+        <v>9219.789199999999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>16377.14613</v>
+        <v>15729.24696</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>175789.03085</v>
+        <v>142960.98865</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>214331.19112</v>
+        <v>192097.97431</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>30640.98151</v>
+        <v>23219.17576</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>228281.9911</v>
+        <v>225544.59514</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>192425.50731</v>
+        <v>187656.00488</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>122182.64019</v>
+        <v>118967.64301</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>272831.11516</v>
+        <v>272641.09066</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>182806.5538</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>169576.25017</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>398440.092</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1045129.62585</v>
+        <v>937046.9456399999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1233067.98821</v>
+        <v>988008.55114</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1742912.7906</v>
+        <v>1474915.84484</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1263185.94852</v>
+        <v>867132.0741800001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2469746.84245</v>
+        <v>2141396.54362</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4152308.23016</v>
+        <v>3740113.68927</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>8927186.110540001</v>
+        <v>9107023.47663</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>10685231.81569</v>
+        <v>9002211.388040001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>11359211.82887</v>
+        <v>10467915.3691</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>37309804.17276</v>
+        <v>31145750.21222</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>15762181.7347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>13811295.42699</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>27432093.222</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>492.92882</v>
+        <v>247.63937</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>50.01225</v>
+        <v>42.38798999999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>147.95212</v>
+        <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>33.16683999999999</v>
+        <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>107.94409</v>
+        <v>102.92</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1012.3544</v>
+        <v>1028.16386</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>141.31776</v>
+        <v>41.76411</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>86.59694999999999</v>
+        <v>30.00425</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>47797.96001</v>
+        <v>115.43018</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>283.36357</v>
+        <v>3.29868</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>2121.05504</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>5781.725</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>25785.3257</v>
+        <v>24097.04491</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>314089.39362</v>
@@ -2411,7 +2502,7 @@
         <v>26035.25462</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>10845.00789</v>
+        <v>10621.20183</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>14825.47177</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>2.381</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>242800.17535</v>
+        <v>216813.36129</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>282832.35997</v>
+        <v>252745.99546</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>242800.75079</v>
+        <v>212185.78983</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>387655.81269</v>
+        <v>367223.55764</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>454434.61254</v>
+        <v>448123.42479</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>587994.27543</v>
+        <v>496080.00337</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>533053.59027</v>
+        <v>404544.01092</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>858800.6665299999</v>
+        <v>600294.25667</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1191714.92544</v>
+        <v>722140.09089</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1963292.0653</v>
+        <v>1415903.06665</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5062936.18175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2392295.08374</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1059228.275</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>309240.88524</v>
+        <v>190330.08703</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>254553.54901</v>
+        <v>187568.6407</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>681441.9986800001</v>
+        <v>479275.93862</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>470475.39155</v>
+        <v>278185.30388</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>766937.43568</v>
+        <v>548399.5218299999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>971457.90118</v>
+        <v>635137.55983</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1463054.72184</v>
+        <v>1209459.68006</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1778806.73101</v>
+        <v>1443202.34673</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2312109.28568</v>
+        <v>1846304.12847</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4949465.44119</v>
+        <v>3867186.25476</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>5461721.51712</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4338926.965100001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4571563.949</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>242012.10652</v>
+        <v>184503.37412</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>247638.52544</v>
+        <v>183509.08813</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>515697.32524</v>
+        <v>454520.1284399999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>409726.33714</v>
+        <v>249484.60928</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>695564.2526</v>
+        <v>506333.29462</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>814084.37929</v>
+        <v>559315.16626</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1014349.12797</v>
+        <v>1112996.38441</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1491248.55358</v>
+        <v>1311631.65118</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1931338.11451</v>
+        <v>1714084.51923</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>4427636.26456</v>
+        <v>3659024.86672</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>4384584.62274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3584913.7999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4439014.811</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>67228.77872</v>
+        <v>5826.71291</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>6915.02357</v>
+        <v>4059.55257</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>165744.67344</v>
+        <v>24755.81018</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>60749.05441</v>
+        <v>28700.6946</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>71373.18308</v>
+        <v>42066.22721</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>157373.52189</v>
+        <v>75822.39356999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>448705.59387</v>
+        <v>96463.29565</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>287558.17743</v>
+        <v>131570.69555</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>380771.17117</v>
+        <v>132219.60924</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>521829.1766300001</v>
+        <v>208161.38804</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1077136.89438</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>754013.1651999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>132549.138</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2495190.39481</v>
+        <v>2314949.27861</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>3499954.0881</v>
+        <v>3163093.09598</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>3501588.95657</v>
+        <v>3202948.15756</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3400639.15666</v>
+        <v>3328209.96277</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3676412.543839999</v>
+        <v>3781479.45521</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4008908.27263</v>
+        <v>4205439.78705</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>4758993.77992</v>
+        <v>5565182.347469999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>5693600.579310001</v>
+        <v>5740953.02473</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>5765023.89271</v>
+        <v>5825154.74491</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>5864420.344059999</v>
+        <v>6980460.992520001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>10774057.07756</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>13553995.13282</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>10492496.745</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>304577.81983</v>
+        <v>222001.62764</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>289847.62204</v>
+        <v>213381.95466</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>546020.70322</v>
+        <v>470295.11255</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>392289.51513</v>
+        <v>274691.91106</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>566913.8728499999</v>
+        <v>414678.88644</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>869484.93735</v>
+        <v>740818.64624</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>977907.0238499999</v>
+        <v>773891.6117799999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2427001.98141</v>
+        <v>2116128.30784</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1447121.78256</v>
+        <v>987976.5599099998</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3199068.0698</v>
+        <v>2965622.55031</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4858506.726770001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1127277.97203</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1955404.184</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>53646.86098</v>
+        <v>50379.90523</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>75879.68481000001</v>
+        <v>62063.23749</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>103511.80617</v>
+        <v>100811.40555</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>98787.98178</v>
+        <v>74331.47521999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>72856.19438</v>
+        <v>60555.78262</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>97938.14164</v>
+        <v>72955.68021999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>96053.99534000001</v>
+        <v>75016.14194</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>171819.00202</v>
+        <v>146973.2858</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>139506.43975</v>
+        <v>88902.01278999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>113097.96555</v>
+        <v>108867.82703</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>195439.52252</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>132026.67954</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>59723.424</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>250930.95885</v>
+        <v>171621.72241</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>213967.93723</v>
+        <v>151318.71717</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>442508.89705</v>
+        <v>369483.707</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>293501.53335</v>
+        <v>200360.43584</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>494057.67847</v>
+        <v>354123.10382</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>771546.79571</v>
+        <v>667862.9660199999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>881853.02851</v>
+        <v>698875.46984</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2255182.97939</v>
+        <v>1969155.02204</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1307615.34281</v>
+        <v>899074.54712</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3085970.10425</v>
+        <v>2856754.72328</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>4663067.20425</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>995251.29249</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1895680.76</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>303704.4559</v>
+        <v>230943.62387</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>511042.87723</v>
+        <v>402117.15401</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1383822.72318</v>
+        <v>1055129.16322</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>554815.4757599999</v>
+        <v>410573.66717</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>650181.2003100001</v>
+        <v>497051.58756</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>950776.59665</v>
+        <v>921514.09882</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>841018.9332599998</v>
+        <v>779985.77037</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2027235.44782</v>
+        <v>1711846.57409</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1491770.73614</v>
+        <v>1051528.12438</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1487041.24833</v>
+        <v>994872.4721499999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1940617.51133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1585649.76847</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1955416.339</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>17742.6447</v>
+        <v>15768.4715</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>32453.93496</v>
+        <v>25779.1709</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>22853.90314</v>
+        <v>20486.52165</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>16240.17868</v>
+        <v>11963.38925</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>27527.98936</v>
+        <v>25424.37072</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>38862.36234000001</v>
+        <v>26726.44693</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>43081.34513</v>
+        <v>26164.49078</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>49931.14295999999</v>
+        <v>41887.47378</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>88208.32236000001</v>
+        <v>68317.05291</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>58397.50770999999</v>
+        <v>49832.71090999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>56732.48465</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>42388.21885</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>31301.188</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>66724.16056</v>
+        <v>50978.49085</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>106694.00757</v>
+        <v>90886.00293999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>185868.9417</v>
+        <v>168894.23329</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>109966.56926</v>
+        <v>88225.21915999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>97366.44996000001</v>
+        <v>79139.77102000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>196435.99354</v>
+        <v>295008.67408</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>171608.22321</v>
+        <v>161380.93466</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>209277.95659</v>
+        <v>180246.99157</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>190871.12857</v>
+        <v>153383.77716</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>152423.29905</v>
+        <v>136336.64401</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>232547.96174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>154172.08808</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>200957.404</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>219237.65064</v>
+        <v>164196.66152</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>371894.9347</v>
+        <v>285451.98017</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1175099.87834</v>
+        <v>865748.40828</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>428608.7278199999</v>
+        <v>310385.05876</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>525286.7609900001</v>
+        <v>392487.4458200001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>715478.24077</v>
+        <v>599778.97781</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>626329.3649200001</v>
+        <v>592440.34493</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1768026.34827</v>
+        <v>1489712.10874</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1212691.28521</v>
+        <v>829827.2943099999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1276220.44157</v>
+        <v>808703.11723</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1651337.06494</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1389089.46154</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1723157.747</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>2496063.75874</v>
+        <v>2306007.28238</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>3278758.83291</v>
+        <v>2974357.89663</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>2663786.93661</v>
+        <v>2618114.10689</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3238113.19603</v>
+        <v>3192328.20666</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3593145.21638</v>
+        <v>3699106.754089999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3927616.613330001</v>
+        <v>4024744.33447</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4895881.87051</v>
+        <v>5559088.18888</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>6093367.1129</v>
+        <v>6145234.75848</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>5720374.93913</v>
+        <v>5761603.180439999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>7576447.16553</v>
+        <v>8951211.07068</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>13691946.293</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>13095623.33638</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>10492484.59</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>263463.83168</v>
+        <v>238425.68952</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>459483.47155</v>
+        <v>427809.59791</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>475644.85325</v>
+        <v>420457.50674</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>539010.8716900001</v>
+        <v>466893.87093</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>489185.39496</v>
+        <v>455662.33838</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>637884.8520100001</v>
+        <v>587420.92275</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>799139.33878</v>
+        <v>817393.4509399999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1035325.70215</v>
+        <v>899157.0991999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>874564.79973</v>
+        <v>778143.13696</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1230921.91667</v>
+        <v>1154275.43635</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1951613.10786</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1655882.72988</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1319604.072</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>2232599.92706</v>
+        <v>2067581.59286</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2819275.36136</v>
+        <v>2546548.29872</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>2188142.08336</v>
+        <v>2197656.60015</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2699102.32434</v>
+        <v>2725434.33573</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>3103959.82142</v>
+        <v>3243444.41571</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3289731.76132</v>
+        <v>3437323.41172</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>4096742.53173</v>
+        <v>4741694.737939999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>5058041.41075</v>
+        <v>5246077.659279999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>4845810.139400001</v>
+        <v>4983460.04348</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>6345525.248860001</v>
+        <v>7796935.63433</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>11740333.18514</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>11439740.6065</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>9172880.517999999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>367</v>
+        <v>150</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>432</v>
+        <v>197</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>482</v>
+        <v>221</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>561</v>
+        <v>253</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>476</v>
+        <v>235</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>511</v>
+        <v>245</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>552</v>
+        <v>248</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>646</v>
+        <v>289</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>752</v>
+        <v>312</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>371</v>
+        <v>196</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>157</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>